--- a/libro/input_files/euribor_curve.xlsx
+++ b/libro/input_files/euribor_curve.xlsx
@@ -22,20 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">date</t>
+    <t xml:space="preserve">rate</t>
   </si>
   <si>
-    <t xml:space="preserve">rate</t>
+    <t xml:space="preserve">delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -107,11 +106,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -132,16 +131,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -150,249 +149,163 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">F2</f>
-        <v>44440</v>
-      </c>
-      <c r="B2" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <f aca="false">DATE(G2, 9, 1)</f>
-        <v>44440</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="true">YEAR(TODAY())</f>
-        <v>2021</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <f aca="false">$F$2+C3*365</f>
-        <v>44805</v>
-      </c>
-      <c r="B3" s="0" t="n">
         <v>0.050125</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <f aca="false">$F$2+C4*365</f>
-        <v>45170</v>
-      </c>
-      <c r="B4" s="0" t="n">
         <v>0.0505</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <f aca="false">$F$2+C5*365</f>
-        <v>45535</v>
-      </c>
-      <c r="B5" s="0" t="n">
         <v>0.051125</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <f aca="false">$F$2+C6*365</f>
-        <v>45900</v>
-      </c>
-      <c r="B6" s="0" t="n">
         <v>0.052</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <f aca="false">$F$2+C7*365</f>
-        <v>46265</v>
-      </c>
-      <c r="B7" s="0" t="n">
         <v>0.053125</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <f aca="false">$F$2+C8*365</f>
-        <v>46630</v>
-      </c>
-      <c r="B8" s="0" t="n">
         <v>0.0545</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <f aca="false">$F$2+C9*365</f>
-        <v>46995</v>
-      </c>
-      <c r="B9" s="0" t="n">
         <v>0.056125</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <f aca="false">$F$2+C10*365</f>
-        <v>47360</v>
-      </c>
-      <c r="B10" s="0" t="n">
         <v>0.058</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <f aca="false">$F$2+C11*365</f>
-        <v>47725</v>
-      </c>
-      <c r="B11" s="0" t="n">
         <v>0.060125</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <f aca="false">$F$2+C12*365</f>
-        <v>48090</v>
-      </c>
-      <c r="B12" s="0" t="n">
         <v>0.0625</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <f aca="false">$F$2+C13*365</f>
-        <v>48455</v>
-      </c>
-      <c r="B13" s="0" t="n">
         <v>0.065125</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <f aca="false">$F$2+C14*365</f>
-        <v>48820</v>
-      </c>
-      <c r="B14" s="0" t="n">
         <v>0.068</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <f aca="false">$F$2+C15*365</f>
-        <v>49915</v>
-      </c>
-      <c r="B15" s="0" t="n">
         <v>0.071125</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <f aca="false">$F$2+C16*365</f>
-        <v>51010</v>
-      </c>
-      <c r="B16" s="0" t="n">
         <v>0.0745</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <f aca="false">$F$2+C17*365</f>
-        <v>53565</v>
-      </c>
-      <c r="B17" s="0" t="n">
         <v>0.078125</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <f aca="false">$F$2+C18*365</f>
-        <v>55390</v>
-      </c>
-      <c r="B18" s="0" t="n">
         <v>0.082</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <f aca="false">$F$2+C19*365</f>
-        <v>59040</v>
-      </c>
-      <c r="B19" s="0" t="n">
         <v>0.086125</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <f aca="false">$F$2+C20*365</f>
-        <v>62690</v>
-      </c>
-      <c r="B20" s="0" t="n">
         <v>0.0905</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <f aca="false">$F$2+C21*365</f>
-        <v>66340</v>
-      </c>
-      <c r="B21" s="0" t="n">
         <v>0.095125</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>60</v>
       </c>
     </row>

--- a/libro/input_files/euribor_curve.xlsx
+++ b/libro/input_files/euribor_curve.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2137B-E52C-4507-AB76-7BC4EB01C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1CF6BD5-F416-4FFC-9FFE-85AE1C18129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10530" yWindow="-12210" windowWidth="15375" windowHeight="10095" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6780" yWindow="-12495" windowWidth="15375" windowHeight="10095" activeTab="2" xr2:uid="{0A8E32F3-0BB1-4D11-836C-DFB303D664FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EURIBOR1M" sheetId="1" r:id="rId1"/>
+    <sheet name="EURIBOR3M" sheetId="2" r:id="rId2"/>
+    <sheet name="EURIBOR6M" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>months</t>
   </si>
@@ -38,14 +49,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,8 +82,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,191 +397,979 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40871FD5-04CD-4084-8D77-0E766A3672EA}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B2" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>5.0125000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B3" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>5.0500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B4" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>5.1124999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B5" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B6" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>5.3124999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B7" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>5.45E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B8" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>5.6125000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B10" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>6.0124999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="B11" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="B12" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>6.5125000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="B13" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="B14" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>7.1124999999999994E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="B15" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
-        <v>7.4499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7.8125E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8.6124999999999993E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9.0499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>60</v>
       </c>
-      <c r="B21" s="1">
-        <v>9.5125000000000001E-2</v>
-      </c>
+      <c r="B21" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.351</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>240</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.23199999999999</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.024</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>360</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045AC712-9F89-4AF6-AF9F-2FEA4492971F}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.3779999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.3114999999999899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.3180000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>240</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>360</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.7069999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3EDD39-2C7F-4738-8B2A-88A87760AD8A}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.3159999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.3029999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>240</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>360</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.649</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>